--- a/data/samples_coverage.xlsx
+++ b/data/samples_coverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\gonev\Lynx\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\home\gonev\Lynx\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2EC6AC-67B9-4EEE-8E3C-F0B1D0926C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352B89F-5F21-4523-8F32-2A5B527C721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E181E8E-A742-4104-B710-4CD7A764A8BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3E181E8E-A742-4104-B710-4CD7A764A8BD}"/>
   </bookViews>
   <sheets>
     <sheet name="All_samples" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="154">
   <si>
     <t>Sample</t>
   </si>
@@ -481,6 +481,27 @@
   </si>
   <si>
     <t>new_coverage</t>
+  </si>
+  <si>
+    <t>c_ll_ba_0263</t>
+  </si>
+  <si>
+    <t>c_ll_ba_0264</t>
+  </si>
+  <si>
+    <t>c_ll_ba_0266</t>
+  </si>
+  <si>
+    <t>c_ll_ba_0238</t>
+  </si>
+  <si>
+    <t>c_ll_ba_0262</t>
+  </si>
+  <si>
+    <t>c_ll_ba_0265</t>
+  </si>
+  <si>
+    <t>c_ll_ba_0261</t>
   </si>
 </sst>
 </file>
@@ -575,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,12 +619,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -943,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1FD1AD-C586-41A6-9F7F-37AEF7907D5C}">
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B65" activeCellId="3" sqref="B2:B27 B36:B48 B56:B64 B65:B73"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -955,7 +974,7 @@
     <col min="4" max="4" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1010,7 +1029,7 @@
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>34.299999999999997</v>
       </c>
       <c r="I2" s="9">
@@ -1039,7 +1058,7 @@
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>18.899999999999999</v>
       </c>
       <c r="I3" s="9">
@@ -1068,7 +1087,7 @@
       <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>18.3</v>
       </c>
       <c r="I4" s="9">
@@ -1097,7 +1116,7 @@
       <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>30.2</v>
       </c>
       <c r="I5" s="9">
@@ -1126,7 +1145,7 @@
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>25.5</v>
       </c>
       <c r="I6" s="9">
@@ -1155,7 +1174,7 @@
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>22.1</v>
       </c>
       <c r="I7" s="9">
@@ -1184,7 +1203,7 @@
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>23.4</v>
       </c>
       <c r="I8" s="9">
@@ -1213,7 +1232,7 @@
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>38.799999999999997</v>
       </c>
       <c r="I9" s="9">
@@ -1242,7 +1261,7 @@
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>25</v>
       </c>
       <c r="I10" s="9">
@@ -1271,7 +1290,7 @@
       <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>25</v>
       </c>
       <c r="I11" s="9">
@@ -1300,7 +1319,7 @@
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>30.2</v>
       </c>
       <c r="I12" s="9">
@@ -1329,7 +1348,7 @@
       <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>21.8</v>
       </c>
       <c r="I13" s="9">
@@ -1358,7 +1377,7 @@
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>15.9</v>
       </c>
       <c r="I14" s="9">
@@ -1387,7 +1406,7 @@
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>17.3</v>
       </c>
       <c r="I15" s="9">
@@ -1416,7 +1435,7 @@
       <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>17.100000000000001</v>
       </c>
       <c r="I16" s="9">
@@ -1445,7 +1464,7 @@
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>20.9</v>
       </c>
       <c r="I17" s="9">
@@ -1474,7 +1493,7 @@
       <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>19.3</v>
       </c>
       <c r="I18" s="9">
@@ -1503,7 +1522,7 @@
       <c r="G19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>15.1</v>
       </c>
       <c r="I19" s="9">
@@ -1532,7 +1551,7 @@
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>18.100000000000001</v>
       </c>
       <c r="I20" s="9">
@@ -1561,7 +1580,7 @@
       <c r="G21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>8</v>
       </c>
       <c r="I21" s="9">
@@ -1590,7 +1609,7 @@
       <c r="G22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>7.6</v>
       </c>
       <c r="I22" s="9">
@@ -1619,7 +1638,7 @@
       <c r="G23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>8.8000000000000007</v>
       </c>
       <c r="I23" s="9">
@@ -1648,7 +1667,7 @@
       <c r="G24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>7.7</v>
       </c>
       <c r="I24" s="9">
@@ -1677,7 +1696,7 @@
       <c r="G25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>8.6999999999999993</v>
       </c>
       <c r="I25" s="9">
@@ -1706,7 +1725,7 @@
       <c r="G26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>26.2</v>
       </c>
       <c r="I26" s="9">
@@ -1735,7 +1754,7 @@
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>20</v>
       </c>
       <c r="I27" s="9">
@@ -1764,7 +1783,7 @@
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>7</v>
       </c>
       <c r="I28" s="9">
@@ -1793,7 +1812,7 @@
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>6.9</v>
       </c>
       <c r="I29" s="9">
@@ -1822,7 +1841,7 @@
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>6.1</v>
       </c>
       <c r="I30" s="9">
@@ -1851,7 +1870,7 @@
       <c r="G31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>6</v>
       </c>
       <c r="I31" s="9">
@@ -1880,7 +1899,7 @@
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>6.9</v>
       </c>
       <c r="I32" s="9">
@@ -1909,7 +1928,7 @@
       <c r="G33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <v>5.7</v>
       </c>
       <c r="I33" s="9">
@@ -1938,7 +1957,7 @@
       <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>7.4</v>
       </c>
       <c r="I34" s="9">
@@ -1967,7 +1986,7 @@
       <c r="G35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <v>7.8</v>
       </c>
       <c r="I35" s="9">
@@ -1996,7 +2015,7 @@
       <c r="G36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>22.9</v>
       </c>
       <c r="I36" s="9">
@@ -2025,7 +2044,7 @@
       <c r="G37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>6.1</v>
       </c>
       <c r="I37" s="9">
@@ -2054,7 +2073,7 @@
       <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>5.3</v>
       </c>
       <c r="I38" s="9">
@@ -2083,7 +2102,7 @@
       <c r="G39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>5.3</v>
       </c>
       <c r="I39" s="9">
@@ -2112,7 +2131,7 @@
       <c r="G40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>5.8</v>
       </c>
       <c r="I40" s="9">
@@ -2141,7 +2160,7 @@
       <c r="G41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <v>5.2</v>
       </c>
       <c r="I41" s="9">
@@ -2170,7 +2189,7 @@
       <c r="G42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <v>6</v>
       </c>
       <c r="I42" s="9">
@@ -2199,7 +2218,7 @@
       <c r="G43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <v>6</v>
       </c>
       <c r="I43" s="9">
@@ -2228,7 +2247,7 @@
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <v>5.7</v>
       </c>
       <c r="I44" s="9">
@@ -2257,7 +2276,7 @@
       <c r="G45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <v>5.9</v>
       </c>
       <c r="I45" s="9">
@@ -2286,7 +2305,7 @@
       <c r="G46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>6.1</v>
       </c>
       <c r="I46" s="9">
@@ -2315,7 +2334,7 @@
       <c r="G47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <v>6.2</v>
       </c>
       <c r="I47" s="9">
@@ -2344,7 +2363,7 @@
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>6</v>
       </c>
       <c r="I48" s="9">
@@ -2373,7 +2392,7 @@
       <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="10">
         <v>7.8</v>
       </c>
       <c r="I49" s="9">
@@ -2402,7 +2421,7 @@
       <c r="G50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="10">
         <v>26.6</v>
       </c>
       <c r="I50" s="9">
@@ -2431,7 +2450,7 @@
       <c r="G51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="10">
         <v>7</v>
       </c>
       <c r="I51" s="9">
@@ -2460,7 +2479,7 @@
       <c r="G52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <v>5.3</v>
       </c>
       <c r="I52" s="9">
@@ -2489,7 +2508,7 @@
       <c r="G53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="10">
         <v>7</v>
       </c>
       <c r="I53" s="9">
@@ -2518,7 +2537,7 @@
       <c r="G54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="10">
         <v>7.9</v>
       </c>
       <c r="I54" s="9">
@@ -2547,7 +2566,7 @@
       <c r="G55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="10">
         <v>8.3000000000000007</v>
       </c>
       <c r="I55" s="9">
@@ -2576,7 +2595,7 @@
       <c r="G56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="10">
         <v>26</v>
       </c>
       <c r="I56" s="9">
@@ -2605,7 +2624,7 @@
       <c r="G57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="10">
         <v>5.4</v>
       </c>
       <c r="I57" s="9">
@@ -2634,7 +2653,7 @@
       <c r="G58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="10">
         <v>5.8</v>
       </c>
       <c r="I58" s="9">
@@ -2663,7 +2682,7 @@
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="10">
         <v>5.0999999999999996</v>
       </c>
       <c r="I59" s="9">
@@ -2692,7 +2711,7 @@
       <c r="G60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <v>5.2</v>
       </c>
       <c r="I60" s="9">
@@ -2721,7 +2740,7 @@
       <c r="G61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="10">
         <v>5.0999999999999996</v>
       </c>
       <c r="I61" s="9">
@@ -2750,7 +2769,7 @@
       <c r="G62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="10">
         <v>5.2</v>
       </c>
       <c r="I62" s="9">
@@ -2779,7 +2798,7 @@
       <c r="G63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="10">
         <v>5.5</v>
       </c>
       <c r="I63" s="9">
@@ -2808,7 +2827,7 @@
       <c r="G64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="10">
         <v>5.4</v>
       </c>
       <c r="I64" s="9">
@@ -2837,7 +2856,7 @@
       <c r="G65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="10">
         <v>6.5</v>
       </c>
       <c r="I65" s="9">
@@ -2866,7 +2885,7 @@
       <c r="G66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="10">
         <v>6.6</v>
       </c>
       <c r="I66" s="9">
@@ -2895,7 +2914,7 @@
       <c r="G67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="10">
         <v>6.4</v>
       </c>
       <c r="I67" s="9">
@@ -2924,7 +2943,7 @@
       <c r="G68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="10">
         <v>6.5</v>
       </c>
       <c r="I68" s="9">
@@ -2953,7 +2972,7 @@
       <c r="G69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="10">
         <v>6.4</v>
       </c>
       <c r="I69" s="9">
@@ -2982,7 +3001,7 @@
       <c r="G70" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="10">
         <v>6.4</v>
       </c>
       <c r="I70" s="9">
@@ -3011,7 +3030,7 @@
       <c r="G71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="10">
         <v>6.1</v>
       </c>
       <c r="I71" s="9">
@@ -3040,7 +3059,7 @@
       <c r="G72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="10">
         <v>6.1</v>
       </c>
       <c r="I72" s="9">
@@ -3069,7 +3088,7 @@
       <c r="G73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="10">
         <v>26.1</v>
       </c>
       <c r="I73" s="9">
@@ -3098,7 +3117,7 @@
       <c r="G74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="10">
         <v>8.1999999999999993</v>
       </c>
       <c r="I74" s="9">
@@ -3127,7 +3146,7 @@
       <c r="G75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="10">
         <v>24.4</v>
       </c>
       <c r="I75" s="9">
@@ -3156,7 +3175,7 @@
       <c r="G76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="10">
         <v>7.9</v>
       </c>
       <c r="I76" s="9">
@@ -3185,7 +3204,7 @@
       <c r="G77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="10">
         <v>8.1</v>
       </c>
       <c r="I77" s="9">
@@ -3214,7 +3233,7 @@
       <c r="G78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="10">
         <v>7.8</v>
       </c>
       <c r="I78" s="9">
@@ -3243,7 +3262,7 @@
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="10">
         <v>7.8</v>
       </c>
       <c r="I79" s="9">
@@ -3272,7 +3291,7 @@
       <c r="G80" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="10">
         <v>8.1</v>
       </c>
       <c r="I80" s="9">
@@ -3301,7 +3320,7 @@
       <c r="G81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="10">
         <v>11</v>
       </c>
       <c r="I81" s="9">
@@ -3330,7 +3349,7 @@
       <c r="G82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="10">
         <v>11.8</v>
       </c>
       <c r="I82" s="9">
@@ -3359,7 +3378,7 @@
       <c r="G83" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83" s="10">
         <v>12.4</v>
       </c>
       <c r="I83" s="9">
@@ -3388,7 +3407,7 @@
       <c r="G84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="10">
         <v>13.2</v>
       </c>
       <c r="I84" s="9">
@@ -3417,7 +3436,7 @@
       <c r="G85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="10">
         <v>12.7</v>
       </c>
       <c r="I85" s="9">
@@ -3446,7 +3465,7 @@
       <c r="G86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="10">
         <v>26</v>
       </c>
       <c r="I86" s="9">
@@ -3475,7 +3494,7 @@
       <c r="G87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="10">
         <v>13.4</v>
       </c>
       <c r="I87" s="9">
@@ -3504,7 +3523,7 @@
       <c r="G88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="10">
         <v>6.5</v>
       </c>
       <c r="I88" s="9">
@@ -3533,7 +3552,7 @@
       <c r="G89" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89" s="10">
         <v>12</v>
       </c>
       <c r="I89" s="9">
@@ -3562,7 +3581,7 @@
       <c r="G90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90" s="10">
         <v>6.1</v>
       </c>
       <c r="I90" s="9">
@@ -3591,7 +3610,7 @@
       <c r="G91" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H91" s="10">
         <v>7.1</v>
       </c>
       <c r="I91" s="9">
@@ -3620,7 +3639,7 @@
       <c r="G92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="10">
         <v>30.8</v>
       </c>
       <c r="I92" s="9">
@@ -3649,7 +3668,7 @@
       <c r="G93" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H93" s="10">
         <v>8.4</v>
       </c>
       <c r="I93" s="9">
@@ -3678,7 +3697,7 @@
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="10">
         <v>26</v>
       </c>
       <c r="I94" s="9">
@@ -3707,7 +3726,7 @@
       <c r="G95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="10">
         <v>8</v>
       </c>
       <c r="I95" s="9">
@@ -3736,7 +3755,7 @@
       <c r="G96" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="10">
         <v>8.4</v>
       </c>
       <c r="I96" s="9">
@@ -3765,7 +3784,7 @@
       <c r="G97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="10">
         <v>28.3</v>
       </c>
       <c r="I97" s="9">
@@ -3794,7 +3813,7 @@
       <c r="G98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="10">
         <v>8</v>
       </c>
       <c r="I98" s="9">
@@ -3823,7 +3842,7 @@
       <c r="G99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="10">
         <v>8.1</v>
       </c>
       <c r="I99" s="9">
@@ -3852,7 +3871,7 @@
       <c r="G100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="11">
+      <c r="H100" s="10">
         <v>8.1999999999999993</v>
       </c>
       <c r="I100" s="9">
@@ -3881,7 +3900,7 @@
       <c r="G101" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="11">
+      <c r="H101" s="10">
         <v>26.2</v>
       </c>
       <c r="I101" s="9">
@@ -3910,7 +3929,7 @@
       <c r="G102" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="10">
         <v>8.4</v>
       </c>
       <c r="I102" s="9">
@@ -3939,7 +3958,7 @@
       <c r="G103" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="10">
         <v>7.9</v>
       </c>
       <c r="I103" s="9">
@@ -3968,7 +3987,7 @@
       <c r="G104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="10">
         <v>8.3000000000000007</v>
       </c>
       <c r="I104" s="9">
@@ -3997,7 +4016,7 @@
       <c r="G105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105" s="10">
         <v>25</v>
       </c>
       <c r="I105" s="9">
@@ -4026,7 +4045,7 @@
       <c r="G106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="10">
         <v>8.1</v>
       </c>
       <c r="I106" s="9">
@@ -4055,7 +4074,7 @@
       <c r="G107" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="10">
         <v>9.9</v>
       </c>
       <c r="I107" s="9">
@@ -4084,7 +4103,7 @@
       <c r="G108" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="10">
         <v>11.1</v>
       </c>
       <c r="I108" s="9">
@@ -4092,325 +4111,466 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H109" s="10"/>
+      <c r="A109" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="7">
+        <v>20.66</v>
+      </c>
+      <c r="F109" s="7">
+        <v>41.69</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H110" s="10"/>
+      <c r="A110" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="7">
+        <v>20.66</v>
+      </c>
+      <c r="F110" s="7">
+        <v>41.74</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H111" s="13"/>
+      <c r="A111" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="7">
+        <v>20.62</v>
+      </c>
+      <c r="F111" s="7">
+        <v>41.61</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H112" s="13"/>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H113" s="13"/>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H114" s="13"/>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H115" s="13"/>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H116" s="13"/>
-    </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H117" s="13"/>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H118" s="13"/>
-    </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H119" s="13"/>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H120" s="13"/>
-    </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H121" s="13"/>
-    </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H122" s="13"/>
-    </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H123" s="13"/>
-    </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H124" s="13"/>
-    </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H125" s="13"/>
-    </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H126" s="13"/>
-    </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H127" s="13"/>
-    </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H128" s="13"/>
+      <c r="A112" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="7">
+        <v>20.89</v>
+      </c>
+      <c r="F112" s="7">
+        <v>41.66</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="7">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="7">
+        <v>21.27</v>
+      </c>
+      <c r="F113" s="7">
+        <v>41.77</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="7">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="7">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H116" s="11"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H117" s="11"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H121" s="11"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H122" s="11"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H123" s="11"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H124" s="11"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H128" s="11"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H129" s="13"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H130" s="13"/>
+      <c r="H130" s="11"/>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H131" s="13"/>
+      <c r="H131" s="11"/>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H132" s="13"/>
+      <c r="H132" s="11"/>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H133" s="13"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H134" s="13"/>
+      <c r="H134" s="11"/>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H135" s="13"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H136" s="13"/>
+      <c r="H136" s="11"/>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H137" s="13"/>
+      <c r="H137" s="11"/>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H138" s="13"/>
+      <c r="H138" s="11"/>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H139" s="13"/>
+      <c r="H139" s="11"/>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H140" s="13"/>
+      <c r="H140" s="11"/>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H141" s="13"/>
+      <c r="H141" s="11"/>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H142" s="13"/>
+      <c r="H142" s="11"/>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H143" s="13"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H144" s="13"/>
+      <c r="H144" s="11"/>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H145" s="13"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H146" s="13"/>
+      <c r="H146" s="11"/>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H147" s="13"/>
+      <c r="H147" s="11"/>
     </row>
     <row r="148" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H148" s="13"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H149" s="13"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H150" s="13"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H151" s="13"/>
+      <c r="H151" s="11"/>
     </row>
     <row r="152" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H152" s="13"/>
+      <c r="H152" s="11"/>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H153" s="13"/>
+      <c r="H153" s="11"/>
     </row>
     <row r="154" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H154" s="13"/>
+      <c r="H154" s="11"/>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H155" s="13"/>
+      <c r="H155" s="11"/>
     </row>
     <row r="156" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H156" s="13"/>
+      <c r="H156" s="11"/>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H157" s="13"/>
+      <c r="H157" s="11"/>
     </row>
     <row r="158" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H158" s="13"/>
+      <c r="H158" s="11"/>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H159" s="13"/>
+      <c r="H159" s="11"/>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H160" s="13"/>
+      <c r="H160" s="11"/>
     </row>
     <row r="161" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H161" s="13"/>
+      <c r="H161" s="11"/>
     </row>
     <row r="162" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H162" s="13"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H163" s="13"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H164" s="13"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H165" s="13"/>
+      <c r="H165" s="11"/>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H166" s="13"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H167" s="13"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H168" s="13"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H169" s="13"/>
+      <c r="H169" s="11"/>
     </row>
     <row r="170" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H170" s="13"/>
+      <c r="H170" s="11"/>
     </row>
     <row r="171" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H171" s="13"/>
+      <c r="H171" s="11"/>
     </row>
     <row r="172" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H172" s="13"/>
+      <c r="H172" s="11"/>
     </row>
     <row r="173" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H173" s="13"/>
+      <c r="H173" s="11"/>
     </row>
     <row r="174" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H174" s="13"/>
+      <c r="H174" s="11"/>
     </row>
     <row r="175" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H175" s="13"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H176" s="13"/>
+      <c r="H176" s="11"/>
     </row>
     <row r="177" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H177" s="13"/>
+      <c r="H177" s="11"/>
     </row>
     <row r="178" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H178" s="13"/>
+      <c r="H178" s="11"/>
     </row>
     <row r="179" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H179" s="13"/>
+      <c r="H179" s="11"/>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H180" s="13"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H181" s="13"/>
+      <c r="H181" s="11"/>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H182" s="13"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H183" s="13"/>
+      <c r="H183" s="11"/>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H184" s="13"/>
+      <c r="H184" s="11"/>
     </row>
     <row r="185" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H185" s="13"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H186" s="13"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H187" s="13"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H188" s="13"/>
+      <c r="H188" s="11"/>
     </row>
     <row r="189" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H189" s="13"/>
+      <c r="H189" s="11"/>
     </row>
     <row r="190" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H190" s="13"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H191" s="13"/>
+      <c r="H191" s="11"/>
     </row>
     <row r="192" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H192" s="13"/>
+      <c r="H192" s="11"/>
     </row>
     <row r="193" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H193" s="13"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H194" s="13"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H195" s="13"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H196" s="13"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H197" s="13"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H198" s="13"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H199" s="13"/>
+      <c r="H199" s="11"/>
     </row>
     <row r="200" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H200" s="13"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H201" s="13"/>
+      <c r="H201" s="11"/>
     </row>
     <row r="202" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H202" s="13"/>
+      <c r="H202" s="11"/>
     </row>
     <row r="203" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H203" s="13"/>
+      <c r="H203" s="11"/>
     </row>
     <row r="204" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H204" s="13"/>
+      <c r="H204" s="11"/>
     </row>
     <row r="205" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H205" s="13"/>
+      <c r="H205" s="11"/>
     </row>
     <row r="206" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H206" s="13"/>
+      <c r="H206" s="11"/>
     </row>
     <row r="207" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H207" s="13"/>
+      <c r="H207" s="11"/>
     </row>
     <row r="208" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H208" s="13"/>
+      <c r="H208" s="11"/>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H209" s="13"/>
+      <c r="H209" s="11"/>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H210" s="13"/>
+      <c r="H210" s="11"/>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H211" s="13"/>
+      <c r="H211" s="11"/>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H212" s="13"/>
+      <c r="H212" s="11"/>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H213" s="13"/>
+      <c r="H213" s="11"/>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H214" s="13"/>
+      <c r="H214" s="11"/>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H215" s="13"/>
+      <c r="H215" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4419,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA4538C-5D97-4DC3-A378-B0FBA1CFE876}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J58"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4430,6 +4590,7 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -4493,7 +4654,7 @@
         <v>25.31</v>
       </c>
       <c r="I2" t="b">
-        <f>IF(H2&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" ref="I2:I33" si="0">IF(H2&gt;6.5, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="J2" s="8">
@@ -4526,7 +4687,7 @@
         <v>11.23</v>
       </c>
       <c r="I3" t="b">
-        <f>IF(H3&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3" s="8">
@@ -4559,7 +4720,7 @@
         <v>14.21</v>
       </c>
       <c r="I4" t="b">
-        <f>IF(H4&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" s="8">
@@ -4592,7 +4753,7 @@
         <v>23.3</v>
       </c>
       <c r="I5" t="b">
-        <f>IF(H5&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J5" s="8">
@@ -4625,7 +4786,7 @@
         <v>17.760000000000002</v>
       </c>
       <c r="I6" t="b">
-        <f>IF(H6&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6" s="8">
@@ -4658,7 +4819,7 @@
         <v>17.34</v>
       </c>
       <c r="I7" t="b">
-        <f>IF(H7&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" s="8">
@@ -4691,7 +4852,7 @@
         <v>17.510000000000002</v>
       </c>
       <c r="I8" t="b">
-        <f>IF(H8&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8" s="8">
@@ -4724,7 +4885,7 @@
         <v>30.63</v>
       </c>
       <c r="I9" t="b">
-        <f>IF(H9&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9" s="8">
@@ -4757,7 +4918,7 @@
         <v>19.79</v>
       </c>
       <c r="I10" t="b">
-        <f>IF(H10&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J10" s="8">
@@ -4790,7 +4951,7 @@
         <v>20.02</v>
       </c>
       <c r="I11" t="b">
-        <f>IF(H11&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J11" s="8">
@@ -4823,7 +4984,7 @@
         <v>23.73</v>
       </c>
       <c r="I12" t="b">
-        <f>IF(H12&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J12" s="8">
@@ -4856,7 +5017,7 @@
         <v>15.88</v>
       </c>
       <c r="I13" t="b">
-        <f>IF(H13&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J13" s="8">
@@ -4889,7 +5050,7 @@
         <v>8.76</v>
       </c>
       <c r="I14" t="b">
-        <f>IF(H14&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14" s="8">
@@ -4922,7 +5083,7 @@
         <v>10.74</v>
       </c>
       <c r="I15" t="b">
-        <f>IF(H15&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J15" s="8">
@@ -4955,7 +5116,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="I16" t="b">
-        <f>IF(H16&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J16" s="8">
@@ -4988,7 +5149,7 @@
         <v>14.36</v>
       </c>
       <c r="I17" t="b">
-        <f>IF(H17&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J17" s="8">
@@ -5021,7 +5182,7 @@
         <v>12.02</v>
       </c>
       <c r="I18" t="b">
-        <f>IF(H18&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J18" s="8">
@@ -5054,7 +5215,7 @@
         <v>9.99</v>
       </c>
       <c r="I19" t="b">
-        <f>IF(H19&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J19" s="8">
@@ -5087,7 +5248,7 @@
         <v>13.2</v>
       </c>
       <c r="I20" t="b">
-        <f>IF(H20&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J20" s="8">
@@ -5120,7 +5281,7 @@
         <v>7.65</v>
       </c>
       <c r="I21" t="b">
-        <f>IF(H21&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J21" s="8">
@@ -5153,7 +5314,7 @@
         <v>7.08</v>
       </c>
       <c r="I22" t="b">
-        <f>IF(H22&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J22" s="8">
@@ -5186,7 +5347,7 @@
         <v>8.33</v>
       </c>
       <c r="I23" t="b">
-        <f>IF(H23&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J23" s="8">
@@ -5219,7 +5380,7 @@
         <v>7.39</v>
       </c>
       <c r="I24" t="b">
-        <f>IF(H24&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J24" s="8">
@@ -5252,7 +5413,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I25" t="b">
-        <f>IF(H25&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J25" s="8">
@@ -5285,7 +5446,7 @@
         <v>19.32</v>
       </c>
       <c r="I26" t="b">
-        <f>IF(H26&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J26" s="8">
@@ -5318,7 +5479,7 @@
         <v>18.46</v>
       </c>
       <c r="I27" t="b">
-        <f>IF(H27&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J27" s="8">
@@ -5351,7 +5512,7 @@
         <v>21.14</v>
       </c>
       <c r="I28" t="b">
-        <f>IF(H28&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J28" s="8">
@@ -5384,7 +5545,7 @@
         <v>5.95</v>
       </c>
       <c r="I29" t="b">
-        <f>IF(H29&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="8">
@@ -5417,7 +5578,7 @@
         <v>5.2</v>
       </c>
       <c r="I30" t="b">
-        <f>IF(H30&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30" s="8">
@@ -5450,7 +5611,7 @@
         <v>5.15</v>
       </c>
       <c r="I31" t="b">
-        <f>IF(H31&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="8">
@@ -5483,7 +5644,7 @@
         <v>5.68</v>
       </c>
       <c r="I32" t="b">
-        <f>IF(H32&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" s="8">
@@ -5516,7 +5677,7 @@
         <v>5.05</v>
       </c>
       <c r="I33" t="b">
-        <f>IF(H33&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33" s="8">
@@ -5549,7 +5710,7 @@
         <v>5.9</v>
       </c>
       <c r="I34" t="b">
-        <f>IF(H34&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" ref="I34:I61" si="1">IF(H34&gt;6.5, TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="J34" s="8">
@@ -5582,7 +5743,7 @@
         <v>5.9</v>
       </c>
       <c r="I35" t="b">
-        <f>IF(H35&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="8">
@@ -5615,7 +5776,7 @@
         <v>5.62</v>
       </c>
       <c r="I36" t="b">
-        <f>IF(H36&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="8">
@@ -5648,7 +5809,7 @@
         <v>5.86</v>
       </c>
       <c r="I37" t="b">
-        <f>IF(H37&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37" s="8">
@@ -5681,7 +5842,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="b">
-        <f>IF(H38&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="8">
@@ -5714,7 +5875,7 @@
         <v>6.08</v>
       </c>
       <c r="I39" t="b">
-        <f>IF(H39&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="8">
@@ -5747,7 +5908,7 @@
         <v>5.87</v>
       </c>
       <c r="I40" t="b">
-        <f>IF(H40&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="8">
@@ -5780,7 +5941,7 @@
         <v>19.16</v>
       </c>
       <c r="I41" t="b">
-        <f>IF(H41&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41" s="8">
@@ -5813,7 +5974,7 @@
         <v>5.17</v>
       </c>
       <c r="I42" t="b">
-        <f>IF(H42&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="8">
@@ -5846,7 +6007,7 @@
         <v>5.46</v>
       </c>
       <c r="I43" t="b">
-        <f>IF(H43&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="8">
@@ -5879,7 +6040,7 @@
         <v>4.91</v>
       </c>
       <c r="I44" t="b">
-        <f>IF(H44&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="8">
@@ -5912,7 +6073,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="I45" t="b">
-        <f>IF(H45&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J45" s="8">
@@ -5945,7 +6106,7 @@
         <v>4.82</v>
       </c>
       <c r="I46" t="b">
-        <f>IF(H46&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46" s="8">
@@ -5978,7 +6139,7 @@
         <v>5.07</v>
       </c>
       <c r="I47" t="b">
-        <f>IF(H47&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="8">
@@ -6011,7 +6172,7 @@
         <v>5.27</v>
       </c>
       <c r="I48" t="b">
-        <f>IF(H48&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="8">
@@ -6044,7 +6205,7 @@
         <v>5.07</v>
       </c>
       <c r="I49" t="b">
-        <f>IF(H49&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="8">
@@ -6077,7 +6238,7 @@
         <v>6.35</v>
       </c>
       <c r="I50" t="b">
-        <f>IF(H50&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="8">
@@ -6110,7 +6271,7 @@
         <v>6.13</v>
       </c>
       <c r="I51" t="b">
-        <f>IF(H51&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51" s="8">
@@ -6143,7 +6304,7 @@
         <v>6.06</v>
       </c>
       <c r="I52" t="b">
-        <f>IF(H52&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52" s="8">
@@ -6176,7 +6337,7 @@
         <v>6.23</v>
       </c>
       <c r="I53" t="b">
-        <f>IF(H53&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53" s="8">
@@ -6209,7 +6370,7 @@
         <v>6.21</v>
       </c>
       <c r="I54" t="b">
-        <f>IF(H54&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54" s="8">
@@ -6242,7 +6403,7 @@
         <v>5.97</v>
       </c>
       <c r="I55" t="b">
-        <f>IF(H55&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55" s="8">
@@ -6275,7 +6436,7 @@
         <v>5.82</v>
       </c>
       <c r="I56" t="b">
-        <f>IF(H56&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J56" s="8">
@@ -6308,7 +6469,7 @@
         <v>5.91</v>
       </c>
       <c r="I57" t="b">
-        <f>IF(H57&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57" s="8">
@@ -6341,10 +6502,105 @@
         <v>21.01</v>
       </c>
       <c r="I58" t="b">
-        <f>IF(H58&gt;6.5, TRUE, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J58" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20.89</v>
+      </c>
+      <c r="F59" s="2">
+        <v>41.66</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="7">
+        <v>18.61</v>
+      </c>
+      <c r="I59" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2">
+        <v>21.27</v>
+      </c>
+      <c r="F60" s="2">
+        <v>41.77</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="7">
+        <v>15.78</v>
+      </c>
+      <c r="I60" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="7">
+        <v>21.02</v>
+      </c>
+      <c r="I61" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="8">
         <v>6</v>
       </c>
     </row>
